--- a/teaching/traditional_assets/database/data/belgium/belgium_financial_svcs_non_bank_insurance.xlsx
+++ b/teaching/traditional_assets/database/data/belgium/belgium_financial_svcs_non_bank_insurance.xlsx
@@ -591,10 +591,10 @@
         </is>
       </c>
       <c r="D2">
-        <v>0.31</v>
+        <v>-0.804</v>
       </c>
       <c r="E2">
-        <v>0.5720000000000001</v>
+        <v>-0.146</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -603,103 +603,100 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.9906088082901553</v>
+        <v>-48.43137254901961</v>
       </c>
       <c r="J2">
-        <v>0.9906088082901553</v>
+        <v>-48.43137254901961</v>
       </c>
       <c r="K2">
-        <v>288.7</v>
+        <v>68.5</v>
       </c>
       <c r="L2">
-        <v>0.9349093264248703</v>
+        <v>1343.137254901961</v>
       </c>
       <c r="M2">
-        <v>274.5</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>0.06979227581297195</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>0.9508139937651542</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>274.5</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>0.06979227581297195</v>
+        <v>0</v>
       </c>
       <c r="R2">
-        <v>0.9508139937651542</v>
+        <v>0</v>
       </c>
       <c r="S2">
         <v>0</v>
       </c>
-      <c r="T2">
-        <v>0</v>
-      </c>
       <c r="U2">
-        <v>1.35</v>
+        <v>69.8</v>
       </c>
       <c r="V2">
-        <v>0.0003432407007195342</v>
+        <v>0.02083333333333333</v>
       </c>
       <c r="W2">
-        <v>0.09056118447881049</v>
+        <v>0.02193052665279334</v>
       </c>
       <c r="X2">
-        <v>0.02847972438658312</v>
+        <v>0.01872458975801795</v>
       </c>
       <c r="Y2">
-        <v>0.06208146009222737</v>
+        <v>0.003205936894775389</v>
       </c>
       <c r="Z2">
-        <v>0.08574681365062616</v>
+        <v>1.451977964099133e-05</v>
       </c>
       <c r="AA2">
-        <v>0.0849415488851248</v>
+        <v>-0.0007032128571225213</v>
       </c>
       <c r="AB2">
-        <v>0.02804011692845756</v>
+        <v>0.01859028329849068</v>
       </c>
       <c r="AC2">
-        <v>0.05690143195666724</v>
+        <v>-0.0192934961556132</v>
       </c>
       <c r="AD2">
-        <v>390.3</v>
+        <v>386</v>
       </c>
       <c r="AE2">
         <v>0</v>
       </c>
       <c r="AF2">
-        <v>390.3</v>
+        <v>386</v>
       </c>
       <c r="AG2">
-        <v>388.95</v>
+        <v>316.2</v>
       </c>
       <c r="AH2">
-        <v>0.09027617153166491</v>
+        <v>0.1033079970024623</v>
       </c>
       <c r="AI2">
-        <v>0.1110763276225169</v>
+        <v>0.1089318470438832</v>
       </c>
       <c r="AJ2">
-        <v>0.08999201767679689</v>
+        <v>0.08623793159875634</v>
       </c>
       <c r="AK2">
-        <v>0.110734672379678</v>
+        <v>0.09102685896882287</v>
       </c>
       <c r="AL2">
-        <v>17.2</v>
+        <v>16.3</v>
       </c>
       <c r="AM2">
-        <v>17.2</v>
+        <v>-70.90000000000001</v>
       </c>
       <c r="AO2">
-        <v>17.78488372093023</v>
+        <v>-0.1515337423312884</v>
       </c>
       <c r="AQ2">
-        <v>17.78488372093023</v>
+        <v>0.03483779971791255</v>
       </c>
     </row>
     <row r="3">
@@ -719,10 +716,10 @@
         </is>
       </c>
       <c r="D3">
-        <v>0.31</v>
+        <v>-0.804</v>
       </c>
       <c r="E3">
-        <v>0.5720000000000001</v>
+        <v>-0.146</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -731,103 +728,100 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.9906088082901553</v>
+        <v>-48.43137254901961</v>
       </c>
       <c r="J3">
-        <v>0.9906088082901553</v>
+        <v>-48.43137254901961</v>
       </c>
       <c r="K3">
-        <v>288.7</v>
+        <v>68.5</v>
       </c>
       <c r="L3">
-        <v>0.9349093264248703</v>
+        <v>1343.137254901961</v>
       </c>
       <c r="M3">
-        <v>274.5</v>
+        <v>-0</v>
       </c>
       <c r="N3">
-        <v>0.06979227581297195</v>
+        <v>-0</v>
       </c>
       <c r="O3">
-        <v>0.9508139937651542</v>
+        <v>-0</v>
       </c>
       <c r="P3">
-        <v>274.5</v>
+        <v>-0</v>
       </c>
       <c r="Q3">
-        <v>0.06979227581297195</v>
+        <v>-0</v>
       </c>
       <c r="R3">
-        <v>0.9508139937651542</v>
+        <v>-0</v>
       </c>
       <c r="S3">
         <v>0</v>
       </c>
-      <c r="T3">
-        <v>0</v>
-      </c>
       <c r="U3">
-        <v>1.35</v>
+        <v>69.8</v>
       </c>
       <c r="V3">
-        <v>0.0003432407007195342</v>
+        <v>0.02083333333333333</v>
       </c>
       <c r="W3">
-        <v>0.09056118447881049</v>
+        <v>0.02193052665279334</v>
       </c>
       <c r="X3">
-        <v>0.02847972438658312</v>
+        <v>0.01872458975801795</v>
       </c>
       <c r="Y3">
-        <v>0.06208146009222737</v>
+        <v>0.003205936894775389</v>
       </c>
       <c r="Z3">
-        <v>0.08574681365062616</v>
+        <v>1.451977964099133e-05</v>
       </c>
       <c r="AA3">
-        <v>0.0849415488851248</v>
+        <v>-0.0007032128571225213</v>
       </c>
       <c r="AB3">
-        <v>0.02804011692845756</v>
+        <v>0.01859028329849068</v>
       </c>
       <c r="AC3">
-        <v>0.05690143195666724</v>
+        <v>-0.0192934961556132</v>
       </c>
       <c r="AD3">
-        <v>390.3</v>
+        <v>386</v>
       </c>
       <c r="AE3">
         <v>0</v>
       </c>
       <c r="AF3">
-        <v>390.3</v>
+        <v>386</v>
       </c>
       <c r="AG3">
-        <v>388.95</v>
+        <v>316.2</v>
       </c>
       <c r="AH3">
-        <v>0.09027617153166491</v>
+        <v>0.1033079970024623</v>
       </c>
       <c r="AI3">
-        <v>0.1110763276225169</v>
+        <v>0.1089318470438832</v>
       </c>
       <c r="AJ3">
-        <v>0.08999201767679689</v>
+        <v>0.08623793159875634</v>
       </c>
       <c r="AK3">
-        <v>0.110734672379678</v>
+        <v>0.09102685896882287</v>
       </c>
       <c r="AL3">
-        <v>17.2</v>
+        <v>16.3</v>
       </c>
       <c r="AM3">
-        <v>17.2</v>
+        <v>-70.90000000000001</v>
       </c>
       <c r="AO3">
-        <v>17.78488372093023</v>
+        <v>-0.1515337423312884</v>
       </c>
       <c r="AQ3">
-        <v>17.78488372093023</v>
+        <v>0.03483779971791255</v>
       </c>
     </row>
   </sheetData>
